--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/CompositionFacility</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/CompositionFacility</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -572,7 +572,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSCompositionTypeCS-Facility"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSCompositionTypeCS-Facility"/&gt;
     &lt;code value="facility-report"/&gt;
     &lt;display value="Facility Report"/&gt;
   &lt;/coding&gt;
@@ -667,7 +667,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/EncounterFacility)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/EncounterFacility)
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="patient"/&gt;
     &lt;display value="Patient"/&gt;
   &lt;/coding&gt;
@@ -1453,7 +1453,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="encounter"/&gt;
     &lt;display value="Encounter"/&gt;
   &lt;/coding&gt;
@@ -1510,7 +1510,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="ed-vitals"/&gt;
     &lt;display value="ED Vitals"/&gt;
   &lt;/coding&gt;
@@ -1535,7 +1535,7 @@
     <t>Composition.section:edVitals.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationEDHeartRate|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationEDBloodPressure)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationEDHeartRate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationEDBloodPressure)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="conditions"/&gt;
     &lt;display value="Conditions"/&gt;
   &lt;/coding&gt;
@@ -1596,7 +1596,7 @@
     <t>Composition.section:conditions.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ConditionInitialImpression|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ConditionICD10NatureOfInjury|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ConditionICD10ExternalCause|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationConditionOfPatient|https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationStatusOnArrival)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ConditionInitialImpression|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ConditionICD10NatureOfInjury|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ConditionICD10ExternalCause|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationConditionOfPatient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationStatusOnArrival)
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="outcome"/&gt;
     &lt;display value="Outcome"/&gt;
   &lt;/coding&gt;
@@ -1657,7 +1657,7 @@
     <t>Composition.section:outcome.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationOutcomeAtDischarge)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationOutcomeAtDischarge)
 </t>
   </si>
   <si>
@@ -1693,7 +1693,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="transport"/&gt;
     &lt;display value="Transport"/&gt;
   &lt;/coding&gt;
@@ -1718,7 +1718,7 @@
     <t>Composition.section:transport.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationModeOfTransport)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationModeOfTransport)
 </t>
   </si>
   <si>
@@ -1754,7 +1754,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="documents"/&gt;
     &lt;display value="Documents"/&gt;
   &lt;/coding&gt;
@@ -1779,7 +1779,7 @@
     <t>Composition.section:documents.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceFacilityReport)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceFacilityReport)
 </t>
   </si>
   <si>
@@ -1815,7 +1815,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
+    &lt;system value="https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/RSFacilitySectionCS"/&gt;
     &lt;code value="workflow"/&gt;
     &lt;display value="Workflow"/&gt;
   &lt;/coding&gt;
@@ -1840,7 +1840,7 @@
     <t>Composition.section:workflow.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/TaskRoadSafety)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/TaskRoadSafety)
 </t>
   </si>
   <si>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CompositionFacility.xlsx
+++ b/StructureDefinition-CompositionFacility.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
